--- a/Data/Regression/news_index_senti_lex.xlsx
+++ b/Data/Regression/news_index_senti_lex.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1367300424323988</v>
+        <v>-0.1648510697968484</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1316875938635222</v>
+        <v>-0.1420559008534025</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1303409425686358</v>
+        <v>-0.1507602693997676</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1284530960803104</v>
+        <v>-0.1208809211248323</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1340053053391711</v>
+        <v>-0.1369634546434543</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.127851385995579</v>
+        <v>-0.1544821504524198</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1258949992032613</v>
+        <v>-0.1387304546539103</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1392676073469182</v>
+        <v>-0.1538454146277045</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.135590874016198</v>
+        <v>-0.130234371159348</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1265417566197057</v>
+        <v>-0.1354498496047889</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1272249328433488</v>
+        <v>-0.1412003149222747</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1289749071999312</v>
+        <v>-0.1438232350279852</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1131471892765835</v>
+        <v>-0.1527477415402203</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1445387262732771</v>
+        <v>-0.1462168583928</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1314228198991137</v>
+        <v>-0.1307757812335928</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1181083569111596</v>
+        <v>-0.1326341205962361</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1371799570764055</v>
+        <v>-0.1492804963611088</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1262945052331911</v>
+        <v>-0.151180718919407</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1368827632703425</v>
+        <v>-0.1431766017616103</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1457145607746449</v>
+        <v>-0.1605785424709486</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1359976316092061</v>
+        <v>-0.1404882467796316</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1225734163473593</v>
+        <v>-0.147159740841224</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1146548442434656</v>
+        <v>-0.1397466912673255</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1226690405710376</v>
+        <v>-0.1495236836428847</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1276910856116716</v>
+        <v>-0.1469415172190187</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1314805836212922</v>
+        <v>-0.132176620102111</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.1156644576107618</v>
+        <v>-0.1444084046216105</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1373951728176437</v>
+        <v>-0.1610545897188742</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1379253010340337</v>
+        <v>-0.1493189770385108</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1429773927091934</v>
+        <v>-0.1603570826893655</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1228662644199502</v>
+        <v>-0.1437799763551704</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1122660631391093</v>
+        <v>-0.1269482453093852</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1391205061062498</v>
+        <v>-0.1528433309807632</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1082074659902521</v>
+        <v>-0.1338608550351192</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1163447052194486</v>
+        <v>-0.1480670470271657</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.09977941087257866</v>
+        <v>-0.158370600247604</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.143761173205998</v>
+        <v>-0.1439315648246311</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1167321593505629</v>
+        <v>-0.1248273104337525</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1053849009303301</v>
+        <v>-0.1318183041703173</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1145025255881125</v>
+        <v>-0.1309195610081946</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1071094944905953</v>
+        <v>-0.1392935629829797</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.123397204930825</v>
+        <v>-0.151291257516466</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1252392280828036</v>
+        <v>-0.1426243777824396</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.1108668973411327</v>
+        <v>-0.1295345872209892</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.110980258171868</v>
+        <v>-0.1406874308145825</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.1239939699462925</v>
+        <v>-0.1356416904787512</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.08414272479830127</v>
+        <v>-0.1230598089279662</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.1060392256298471</v>
+        <v>-0.1342607823664262</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.1101185917137686</v>
+        <v>-0.1271038472709053</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.1419597179931236</v>
+        <v>-0.1407599480685658</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1370017634383845</v>
+        <v>-0.1448171631166881</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.1487965588131789</v>
+        <v>-0.1495252859181141</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1200391457534178</v>
+        <v>-0.1157216493913112</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1017071357371708</v>
+        <v>-0.1304811943707284</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.0989833817234568</v>
+        <v>-0.1172274546470841</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1080120894244549</v>
+        <v>-0.1262070829669671</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.1175600643445499</v>
+        <v>-0.1309803107972492</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.09965207426557054</v>
+        <v>-0.1280203108127934</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.1519126948760248</v>
+        <v>-0.1358916559111808</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1063564240612642</v>
+        <v>-0.1497993664842411</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.1097759442933642</v>
+        <v>-0.13254941677878</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1109178717099963</v>
+        <v>-0.1062259037916225</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.123572073737899</v>
+        <v>-0.1333517488070727</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.1151003547233273</v>
+        <v>-0.1398564170676087</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1205287096262377</v>
+        <v>-0.1484330698597682</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.144497869284023</v>
+        <v>-0.1431814030098202</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.1118169748705231</v>
+        <v>-0.113897636327281</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.1234016761593257</v>
+        <v>-0.1287030491123587</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.09520794006413126</v>
+        <v>-0.1517298649051553</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1126052306684287</v>
+        <v>-0.1460762994601562</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1040094492465958</v>
+        <v>-0.1534538823648684</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.1176944331711353</v>
+        <v>-0.130977716508494</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.1307476574792208</v>
+        <v>-0.1471769474653627</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1218791934049758</v>
+        <v>-0.1329278294632227</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.1185059302575111</v>
+        <v>-0.1021901467434885</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.1145676543379041</v>
+        <v>-0.1284041239913637</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.09812065452243231</v>
+        <v>-0.1331777053770662</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1055145408135434</v>
+        <v>-0.1389439929741492</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.1142026263493803</v>
+        <v>-0.1349412598888597</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1130891461140592</v>
+        <v>-0.1420597926572817</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.1146279626336891</v>
+        <v>-0.1316604693605074</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.1151441289182946</v>
+        <v>-0.1327907674496417</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0959899622190977</v>
+        <v>-0.132128447715149</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.09924035213139946</v>
+        <v>-0.117543035144617</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.1343052300653288</v>
+        <v>-0.1464163827090524</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.105450768924923</v>
+        <v>-0.1374644279067934</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1316769155050372</v>
+        <v>-0.1367147567183911</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.113963376957784</v>
+        <v>-0.1355636751679468</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.1238154591642976</v>
+        <v>-0.1536252857434716</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.09976768630964204</v>
+        <v>-0.1298928730633339</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.07904479003593842</v>
+        <v>-0.1166405669027286</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.1335061224174331</v>
+        <v>-0.1456133846468461</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.1295522049504028</v>
+        <v>-0.1363139699698805</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.1234455104914222</v>
+        <v>-0.1400162362591228</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.127883449139454</v>
+        <v>-0.1413129664936477</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.1079284775280315</v>
+        <v>-0.1278441103645698</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.1283015187698102</v>
+        <v>-0.1511220231227845</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.117137095180847</v>
+        <v>-0.1169936426355323</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.1333879928839866</v>
+        <v>-0.1557884211727297</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.1252475140398847</v>
+        <v>-0.1126216372866203</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.09163353677907728</v>
+        <v>-0.1500408080623194</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.104410312049706</v>
+        <v>-0.1165286002143776</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.1190013838176369</v>
+        <v>-0.1261326627956846</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.09202707517598863</v>
+        <v>-0.1122488597384965</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.1040775767733712</v>
+        <v>-0.1347827540118003</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.1243629119587755</v>
+        <v>-0.1199271296771535</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.1356226305544706</v>
+        <v>-0.1298421410850021</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.0986929136015659</v>
+        <v>-0.1158294795588316</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.1214786944014703</v>
+        <v>-0.1329859228559523</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.1000116989685632</v>
+        <v>-0.1238318582393951</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.1239685620090591</v>
+        <v>-0.1134006517123761</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.1186493023473304</v>
+        <v>-0.1365523524093152</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.1246231284707584</v>
+        <v>-0.1248725049932962</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.1103397830390104</v>
+        <v>-0.132137912502428</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.1240700270035163</v>
+        <v>-0.100467702832647</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.1148353255729628</v>
+        <v>-0.1248481555630402</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.1475994639274499</v>
+        <v>-0.1437220341005074</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.1231857821051871</v>
+        <v>-0.1370327636951922</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.1068730489443072</v>
+        <v>-0.1189451884108095</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.1345432555217949</v>
+        <v>-0.1143371790850048</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.09735979898069973</v>
+        <v>-0.1363327523460579</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.1184144050875307</v>
+        <v>-0.1800896861640033</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.1236428686262862</v>
+        <v>-0.1395377348409106</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.1017746238505001</v>
+        <v>-0.1161917118190097</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.1036875931261797</v>
+        <v>-0.1253348651767552</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.1274160998053145</v>
+        <v>-0.1304279997884598</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.129371047095276</v>
+        <v>-0.1389962591910853</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.1015764689344822</v>
+        <v>-0.1249642736683929</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.121976860835095</v>
+        <v>-0.1318882110893391</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.1127590175122937</v>
+        <v>-0.1274649591530128</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.09602477978735474</v>
+        <v>-0.1258992485332011</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.1203936074529885</v>
+        <v>-0.1418169346304533</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.09686086159226528</v>
+        <v>-0.1154423808079722</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.1064487821105244</v>
+        <v>-0.1232188345593917</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.1093034728285024</v>
+        <v>-0.1538876947817244</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.09615108284260028</v>
+        <v>-0.1086043500826005</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.1144316644147797</v>
+        <v>-0.1400022209776507</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.09504837254465394</v>
+        <v>-0.1169981649315499</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.1120967181316979</v>
+        <v>-0.1211869324547397</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.09436783339233464</v>
+        <v>-0.1225301695649494</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.1242286512299093</v>
+        <v>-0.1077539696228735</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.110749911881507</v>
+        <v>-0.1521214890646237</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.0976955808194899</v>
+        <v>-0.1123128257950002</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.1103383468505896</v>
+        <v>-0.1306889692646563</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.1324031320134937</v>
+        <v>-0.1468291436243128</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.1157206068751115</v>
+        <v>-0.1259227985063565</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.1166803922607884</v>
+        <v>-0.1429053985848674</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.10690341361944</v>
+        <v>-0.1408766548845337</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.1581222783326082</v>
+        <v>-0.163119595179373</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.1166607003556596</v>
+        <v>-0.1445756550215281</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.1311160720356674</v>
+        <v>-0.1406810248811037</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.1142551043054151</v>
+        <v>-0.1594929206705731</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.1139964357675921</v>
+        <v>-0.1330742393775911</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.1215831551576284</v>
+        <v>-0.143632476985836</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.107129734683507</v>
+        <v>-0.1330887480968903</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.1103335865588674</v>
+        <v>-0.1413733102935049</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.1139133165284548</v>
+        <v>-0.1319965107136374</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.09661162706326473</v>
+        <v>-0.1193464337364635</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.1172667868513491</v>
+        <v>-0.140713054203214</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.1308192812038594</v>
+        <v>-0.1557254086676099</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.1186119221577921</v>
+        <v>-0.146203427528202</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.13640440518922</v>
+        <v>-0.1426167545828932</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.1162264561361093</v>
+        <v>-0.1329160756965422</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.1315234233849376</v>
+        <v>-0.1647278293096308</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.1137687688647804</v>
+        <v>-0.1306888999167064</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.1302416635688515</v>
+        <v>-0.1498512752272051</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.1260794733444523</v>
+        <v>-0.1477811653015255</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.1042381322808508</v>
+        <v>-0.1366049901506979</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.1218832659826998</v>
+        <v>-0.1462392598687308</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.1314707002075323</v>
+        <v>-0.1382953979661033</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.1291118549011766</v>
+        <v>-0.1374397929612801</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.1432753492990592</v>
+        <v>-0.1404608948489954</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.1192494063143112</v>
+        <v>-0.1240202880518434</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.1366671224422893</v>
+        <v>-0.135266912251587</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.09817423074347507</v>
+        <v>-0.1092378737528949</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.1127882767004681</v>
+        <v>-0.1308450861103073</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.1279652831834627</v>
+        <v>-0.1347837567773603</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.1274370903111749</v>
+        <v>-0.1244467680039165</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.1354296399016517</v>
+        <v>-0.154864045012676</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.1181941824784277</v>
+        <v>-0.1423174628680032</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.1237416795751156</v>
+        <v>-0.1347213396499927</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.1230422752394146</v>
+        <v>-0.1156491269001354</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.1251199982703792</v>
+        <v>-0.1478966364989006</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.113492502047852</v>
+        <v>-0.1429768906875194</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.125306240287849</v>
+        <v>-0.1402249464112634</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.172433551811447</v>
+        <v>-0.1631927557092394</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.1179408172269339</v>
+        <v>-0.1417311466757732</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.1314522647490882</v>
+        <v>-0.1457339429845907</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.1047437153953417</v>
+        <v>-0.1262047435876535</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.1282395416987339</v>
+        <v>-0.1501652191620269</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.1399865381808496</v>
+        <v>-0.1513721666107095</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.1171136683129532</v>
+        <v>-0.1487636541952448</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.1162799707504452</v>
+        <v>-0.1321939245498575</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.1244054711510743</v>
+        <v>-0.1379558150213465</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.1164808586839615</v>
+        <v>-0.1231731258982799</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.1146886697489921</v>
+        <v>-0.1502535739710084</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.1110558890480873</v>
+        <v>-0.148089039058651</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.1372339400743113</v>
+        <v>-0.1410300875909245</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.1424032970177875</v>
+        <v>-0.1506160858365301</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.1288339681826952</v>
+        <v>-0.1412471093862121</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.1415702116013845</v>
+        <v>-0.1438119887640854</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.1222324228057162</v>
+        <v>-0.1407366042577704</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.1234128439978398</v>
+        <v>-0.1407236588509597</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.1463445661094038</v>
+        <v>-0.152871254712649</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.1555102233180348</v>
+        <v>-0.1566507014817867</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.1556935166869135</v>
+        <v>-0.1520646358571172</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.128690457924003</v>
+        <v>-0.1488863229828428</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-0.1364330152607808</v>
+        <v>-0.1470247099767155</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.1455201688762174</v>
+        <v>-0.1413253646864017</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.1453412266149617</v>
+        <v>-0.1542520856688087</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.14746509727753</v>
+        <v>-0.1562065413611834</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.1295856412256542</v>
+        <v>-0.1453127042637936</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.1322796240626463</v>
+        <v>-0.1671532985006246</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.1257917199503666</v>
+        <v>-0.1417132607819188</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.1076311085227544</v>
+        <v>-0.130847264572647</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.1200868858918096</v>
+        <v>-0.1541930432142799</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.1143983894928221</v>
+        <v>-0.1229802128080199</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.1109202401880514</v>
+        <v>-0.1453794684236828</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.1172600735541345</v>
+        <v>-0.1352267275268086</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.1275873783627791</v>
+        <v>-0.1529151464265064</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.1083973678835264</v>
+        <v>-0.1337572286503706</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.1004315741586647</v>
+        <v>-0.1295398552032103</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.1124218535932417</v>
+        <v>-0.145128399747028</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.1112044302190531</v>
+        <v>-0.1296075767227933</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.1144718058467415</v>
+        <v>-0.1478252009918013</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.1345812390877237</v>
+        <v>-0.1498941412098077</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.1081024046202425</v>
+        <v>-0.1482516820626764</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.1260004899344975</v>
+        <v>-0.1608039903021414</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-0.142465370074406</v>
+        <v>-0.1660222589014619</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-0.1220491442745476</v>
+        <v>-0.157141874828808</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-0.1249557631705348</v>
+        <v>-0.1736500501567159</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-0.122783635259573</v>
+        <v>-0.1491979013045466</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.1426384852703948</v>
+        <v>-0.1830342911403013</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-0.1114394590877506</v>
+        <v>-0.1529587272227596</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-0.1438214000515287</v>
+        <v>-0.1619292538918259</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.1353722881252064</v>
+        <v>-0.1625545837369666</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.109253067616231</v>
+        <v>-0.1470945250232661</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.1324460643666712</v>
+        <v>-0.1329740187985859</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-0.1271509170804942</v>
+        <v>-0.1534815371481416</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-0.1152207298750993</v>
+        <v>-0.141957948829222</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-0.1280657189377122</v>
+        <v>-0.1440858179383938</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-0.1409621788192639</v>
+        <v>-0.1445732159411574</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.1324331285453375</v>
+        <v>-0.1497644153704008</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-0.1438985493677469</v>
+        <v>-0.1550022951818542</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-0.1200370030885359</v>
+        <v>-0.1346800454072199</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-0.1237067077883924</v>
+        <v>-0.1615073186634932</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-0.1125074217820016</v>
+        <v>-0.1463937948912976</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.1143278351523017</v>
+        <v>-0.150108011976159</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.1182835809083882</v>
+        <v>-0.1467637368361356</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-0.1207086761078943</v>
+        <v>-0.1396081332290838</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-0.1152035106192077</v>
+        <v>-0.1360879796448408</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.1034329009121741</v>
+        <v>-0.1237869989238679</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.1109745899981196</v>
+        <v>-0.1437896129538375</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-0.09876874841257113</v>
+        <v>-0.1328651127001593</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-0.1178243356985863</v>
+        <v>-0.1363273305325796</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-0.1202159599858766</v>
+        <v>-0.1300356594319052</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.119789141745289</v>
+        <v>-0.157183534623638</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.1099139938129527</v>
+        <v>-0.1510560235442661</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.1012556686076186</v>
+        <v>-0.1414228066393725</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-0.101177500136133</v>
+        <v>-0.1308886930230947</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-0.1353869061890517</v>
+        <v>-0.1661195499367457</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-0.1130652831334617</v>
+        <v>-0.1463708197600745</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-0.1066525733288611</v>
+        <v>-0.1388687145847405</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.1060495593071566</v>
+        <v>-0.1323957233009566</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.1305954756316467</v>
+        <v>-0.1614853214435157</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.122625401810246</v>
+        <v>-0.1460918410406901</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.1240238694169589</v>
+        <v>-0.143777919833558</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.1363017467945807</v>
+        <v>-0.1586696876925689</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.1218252783607006</v>
+        <v>-0.141367240456946</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.1304133986053459</v>
+        <v>-0.1558949310106507</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-0.115274950558477</v>
+        <v>-0.1366829511873661</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.1266549588069215</v>
+        <v>-0.1570962063861467</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.1075827593348288</v>
+        <v>-0.1384342658204709</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.1009016250723619</v>
+        <v>-0.118521411183322</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.1095743113332888</v>
+        <v>-0.1408406937250421</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.1002785028801787</v>
+        <v>-0.1252115195563663</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.1134190141126527</v>
+        <v>-0.1357782275281999</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.1103586862188556</v>
+        <v>-0.1427277594842603</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.1183106722887624</v>
+        <v>-0.1451988811797186</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.1271429746998861</v>
+        <v>-0.1474491382537791</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.1244599506632357</v>
+        <v>-0.1503849647355025</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.1384796657339791</v>
+        <v>-0.1448948683783708</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.1245545347788306</v>
+        <v>-0.1360894971991714</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.1083279521386761</v>
+        <v>-0.1462020941705974</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.137964077745949</v>
+        <v>-0.143600926913191</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.1267769259112362</v>
+        <v>-0.1533117553455294</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.1435753497744924</v>
+        <v>-0.1523790918509553</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.1343734875046527</v>
+        <v>-0.1340144423246622</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.1533287283634851</v>
+        <v>-0.1576883384609335</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.1392009471694141</v>
+        <v>-0.1537858916080684</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.1554565083154753</v>
+        <v>-0.1592354601852625</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.1277571936546366</v>
+        <v>-0.1475471808326761</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.1092505579429667</v>
+        <v>-0.1340065394801759</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.1039557564679829</v>
+        <v>-0.1239674512276768</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.105850610339134</v>
+        <v>-0.1276456289562956</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.130589626041716</v>
+        <v>-0.1489309528949814</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.1219673234733336</v>
+        <v>-0.141002235772236</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.1286687500618719</v>
+        <v>-0.1446860398811163</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.1480108413908291</v>
+        <v>-0.1623228465318637</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.1298676329761373</v>
+        <v>-0.1518404541643135</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.122051908052699</v>
+        <v>-0.1488535027771499</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.118375403848687</v>
+        <v>-0.1544235435696285</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.1230839678671149</v>
+        <v>-0.1430710079085955</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.1306691212685312</v>
+        <v>-0.1486616113614915</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.1251144689213417</v>
+        <v>-0.1569903526700294</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.1200608559166768</v>
+        <v>-0.1631235727168127</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.1134853854618784</v>
+        <v>-0.1672621190593279</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.1130575987905261</v>
+        <v>-0.1577256567367241</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.1130463454308133</v>
+        <v>-0.1331324531404534</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.1100085643145353</v>
+        <v>-0.1320746740461123</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.1174776172271006</v>
+        <v>-0.1336825793603431</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.102944639329581</v>
+        <v>-0.1453879489949619</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.1093359139500446</v>
+        <v>-0.1353230329688963</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.09402078823222212</v>
+        <v>-0.1334563840831493</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.09523741943264658</v>
+        <v>-0.1295435045823123</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.1276730594582512</v>
+        <v>-0.1820978292886713</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.1061296468164279</v>
+        <v>-0.1330273199892036</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.1240285248749175</v>
+        <v>-0.1419034319616386</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.1018453227474084</v>
+        <v>-0.1427717385127454</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.1053671198516572</v>
+        <v>-0.1535965328141393</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.1111664529455258</v>
+        <v>-0.1355593718275513</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.1137302915690281</v>
+        <v>-0.1198574583051874</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.1089940620832645</v>
+        <v>-0.1357506245565157</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.09759709554346668</v>
+        <v>-0.1358167475249214</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.09311913838095709</v>
+        <v>-0.1411430903880462</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.1188126481420009</v>
+        <v>-0.139787407998092</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.09985859226811622</v>
+        <v>-0.1241646460591886</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.1110754092907813</v>
+        <v>-0.1397630891716116</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.09959097049648825</v>
+        <v>-0.1094448342667674</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-0.1058252373620989</v>
+        <v>-0.1233693894318142</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-0.1099963373561677</v>
+        <v>-0.1283392927322985</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-0.125738054948602</v>
+        <v>-0.1618235562840177</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-0.1045362730007199</v>
+        <v>-0.1193680697692928</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.1246998755984305</v>
+        <v>-0.1489479396698089</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.1154073999952768</v>
+        <v>-0.1495323401325639</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.1170544611162211</v>
+        <v>-0.1534256519001425</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_senti_lex.xlsx
+++ b/Data/Regression/news_index_senti_lex.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1648510697968484</v>
+        <v>-0.1646499119012379</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1420559008534025</v>
+        <v>-0.141331295458595</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1507602693997676</v>
+        <v>-0.1448665169600759</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1208809211248323</v>
+        <v>-0.1313422697937304</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1369634546434543</v>
+        <v>-0.1482506210306522</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1544821504524198</v>
+        <v>-0.1562129551827885</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1387304546539103</v>
+        <v>-0.1432290047795616</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1538454146277045</v>
+        <v>-0.1457176183247672</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.130234371159348</v>
+        <v>-0.1374799223669641</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1354498496047889</v>
+        <v>-0.1423164211975923</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1412003149222747</v>
+        <v>-0.146194936083117</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1438232350279852</v>
+        <v>-0.1470584754319187</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1527477415402203</v>
+        <v>-0.1536628633424831</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1462168583928</v>
+        <v>-0.1623431473235395</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1307757812335928</v>
+        <v>-0.1402216279120186</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1326341205962361</v>
+        <v>-0.1432473325408873</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1492804963611088</v>
+        <v>-0.1499513194340855</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.151180718919407</v>
+        <v>-0.1468063494104811</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1431766017616103</v>
+        <v>-0.143152202057742</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1605785424709486</v>
+        <v>-0.1710481096210459</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1404882467796316</v>
+        <v>-0.1428375846589714</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.147159740841224</v>
+        <v>-0.149720519601979</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1397466912673255</v>
+        <v>-0.1362727838013982</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1495236836428847</v>
+        <v>-0.1533142449532906</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1469415172190187</v>
+        <v>-0.152400084391256</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.132176620102111</v>
+        <v>-0.1422878994044155</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.1444084046216105</v>
+        <v>-0.1433884604856666</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1610545897188742</v>
+        <v>-0.1570603631302218</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1493189770385108</v>
+        <v>-0.1540046363652014</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1603570826893655</v>
+        <v>-0.1662286077506123</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1437799763551704</v>
+        <v>-0.1535000782679391</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1269482453093852</v>
+        <v>-0.1442822888032364</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1528433309807632</v>
+        <v>-0.1637624873166005</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1338608550351192</v>
+        <v>-0.1418621649600743</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1480670470271657</v>
+        <v>-0.1543650782427571</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.158370600247604</v>
+        <v>-0.1620964840307394</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.1439315648246311</v>
+        <v>-0.1484759666307037</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1248273104337525</v>
+        <v>-0.1318390023912764</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1318183041703173</v>
+        <v>-0.1344403416508272</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1309195610081946</v>
+        <v>-0.1375631149888948</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1392935629829797</v>
+        <v>-0.145213881328305</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.151291257516466</v>
+        <v>-0.1451807229422875</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1426243777824396</v>
+        <v>-0.1370892966690842</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.1295345872209892</v>
+        <v>-0.1296460513889207</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1406874308145825</v>
+        <v>-0.1445127997030863</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.1356416904787512</v>
+        <v>-0.1452284724665555</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1230598089279662</v>
+        <v>-0.1274166115454476</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.1342607823664262</v>
+        <v>-0.140313823597186</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.1271038472709053</v>
+        <v>-0.1438001104263006</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.1407599480685658</v>
+        <v>-0.152154546093658</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1448171631166881</v>
+        <v>-0.1428518671470875</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.1495252859181141</v>
+        <v>-0.1450812908089276</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1157216493913112</v>
+        <v>-0.130738371698485</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1304811943707284</v>
+        <v>-0.1410176744511736</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.1172274546470841</v>
+        <v>-0.1258169574832385</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1262070829669671</v>
+        <v>-0.1404765544215736</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.1309803107972492</v>
+        <v>-0.1455355719007195</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.1280203108127934</v>
+        <v>-0.138051030584992</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.1358916559111808</v>
+        <v>-0.1519296913415979</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1497993664842411</v>
+        <v>-0.152794096724912</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.13254941677878</v>
+        <v>-0.1318676997780501</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1062259037916225</v>
+        <v>-0.1170418103990171</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.1333517488070727</v>
+        <v>-0.146174816108633</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.1398564170676087</v>
+        <v>-0.1522639635781007</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1484330698597682</v>
+        <v>-0.1495804621700342</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1431814030098202</v>
+        <v>-0.1490516397391855</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.113897636327281</v>
+        <v>-0.1151769962968182</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.1287030491123587</v>
+        <v>-0.14581691843603</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.1517298649051553</v>
+        <v>-0.1640106287695766</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1460762994601562</v>
+        <v>-0.1563222010863879</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1534538823648684</v>
+        <v>-0.1550234196040964</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.130977716508494</v>
+        <v>-0.1388164081941939</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.1471769474653627</v>
+        <v>-0.1486971138203169</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1329278294632227</v>
+        <v>-0.1389011184212276</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.1021901467434885</v>
+        <v>-0.1167644228289683</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.1284041239913637</v>
+        <v>-0.1411183193165193</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.1331777053770662</v>
+        <v>-0.1454795941466242</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1389439929741492</v>
+        <v>-0.1476971517831525</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.1349412598888597</v>
+        <v>-0.1395866686150315</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1420597926572817</v>
+        <v>-0.150644672643012</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.1316604693605074</v>
+        <v>-0.1357744894264241</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.1327907674496417</v>
+        <v>-0.1509270193661148</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.132128447715149</v>
+        <v>-0.1344440399968245</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.117543035144617</v>
+        <v>-0.1284646952764571</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.1464163827090524</v>
+        <v>-0.1450182275300806</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.1374644279067934</v>
+        <v>-0.1551315176364621</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1367147567183911</v>
+        <v>-0.1510234259830331</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.1355636751679468</v>
+        <v>-0.1281950955840326</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.1536252857434716</v>
+        <v>-0.160891496418413</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.1298928730633339</v>
+        <v>-0.1336500246996099</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.1166405669027286</v>
+        <v>-0.1218861129613689</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.1456133846468461</v>
+        <v>-0.1383973579704255</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.1363139699698805</v>
+        <v>-0.1350515470723984</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.1400162362591228</v>
+        <v>-0.1561536158416316</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.1413129664936477</v>
+        <v>-0.1493566330393159</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.1278441103645698</v>
+        <v>-0.1387825386370291</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.1511220231227845</v>
+        <v>-0.1576152361216814</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.1169936426355323</v>
+        <v>-0.120395041230091</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.1557884211727297</v>
+        <v>-0.1602168118143796</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.1126216372866203</v>
+        <v>-0.1084221350400997</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.1500408080623194</v>
+        <v>-0.1534336481529799</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.1165286002143776</v>
+        <v>-0.1368219279775402</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.1261326627956846</v>
+        <v>-0.1432802338509279</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.1122488597384965</v>
+        <v>-0.1367476482556071</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.1347827540118003</v>
+        <v>-0.1412145808672557</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.1199271296771535</v>
+        <v>-0.1379847642948965</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.1298421410850021</v>
+        <v>-0.1313000592375561</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.1158294795588316</v>
+        <v>-0.1313361283322079</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.1329859228559523</v>
+        <v>-0.1308977439045761</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.1238318582393951</v>
+        <v>-0.1183980544991486</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.1134006517123761</v>
+        <v>-0.1283609310411762</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.1365523524093152</v>
+        <v>-0.1364269765202185</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.1248725049932962</v>
+        <v>-0.1378562988768456</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.132137912502428</v>
+        <v>-0.141057838253884</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.100467702832647</v>
+        <v>-0.1181427292043054</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.1248481555630402</v>
+        <v>-0.1315736534080285</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.1437220341005074</v>
+        <v>-0.1552500869069901</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.1370327636951922</v>
+        <v>-0.147453967223952</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.1189451884108095</v>
+        <v>-0.1318232751719385</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.1143371790850048</v>
+        <v>-0.1276277752086762</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.1363327523460579</v>
+        <v>-0.144837789828386</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.1800896861640033</v>
+        <v>-0.1714003869653901</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.1395377348409106</v>
+        <v>-0.1365324325722238</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.1161917118190097</v>
+        <v>-0.1297212184823217</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.1253348651767552</v>
+        <v>-0.1311634138427288</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.1304279997884598</v>
+        <v>-0.1383322333090069</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.1389962591910853</v>
+        <v>-0.1429471054457869</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.1249642736683929</v>
+        <v>-0.1285016182314199</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.1318882110893391</v>
+        <v>-0.1350111932231934</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.1274649591530128</v>
+        <v>-0.1331687873707819</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.1258992485332011</v>
+        <v>-0.129316893087898</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.1418169346304533</v>
+        <v>-0.148345600475706</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-0.1154423808079722</v>
+        <v>-0.1255456919803982</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-0.1232188345593917</v>
+        <v>-0.1299555351293367</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.1538876947817244</v>
+        <v>-0.1519250533097334</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.1086043500826005</v>
+        <v>-0.117795815189328</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-0.1400022209776507</v>
+        <v>-0.1420846865777978</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.1169981649315499</v>
+        <v>-0.131313831481898</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.1211869324547397</v>
+        <v>-0.1283391757850111</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.1225301695649494</v>
+        <v>-0.1372663948851567</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.1077539696228735</v>
+        <v>-0.1152909313092228</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-0.1521214890646237</v>
+        <v>-0.1459555864094359</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.1123128257950002</v>
+        <v>-0.1264944484548188</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.1306889692646563</v>
+        <v>-0.1508109441901803</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.1468291436243128</v>
+        <v>-0.1465344801443121</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-0.1259227985063565</v>
+        <v>-0.1293580570384114</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-0.1429053985848674</v>
+        <v>-0.139167223611294</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-0.1408766548845337</v>
+        <v>-0.1348251122011695</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.163119595179373</v>
+        <v>-0.1635399085708078</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-0.1445756550215281</v>
+        <v>-0.1483465168626635</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-0.1406810248811037</v>
+        <v>-0.1532195383052493</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.1594929206705731</v>
+        <v>-0.1608900810546083</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.1330742393775911</v>
+        <v>-0.1349203640630355</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-0.143632476985836</v>
+        <v>-0.1592621771957351</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.1330887480968903</v>
+        <v>-0.1452842959477817</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.1413733102935049</v>
+        <v>-0.1432053421106725</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.1319965107136374</v>
+        <v>-0.1484202673314073</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.1193464337364635</v>
+        <v>-0.1412056630217786</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.140713054203214</v>
+        <v>-0.160918492701117</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.1557254086676099</v>
+        <v>-0.1636591389864857</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-0.146203427528202</v>
+        <v>-0.163290965499241</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-0.1426167545828932</v>
+        <v>-0.1391397175021907</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-0.1329160756965422</v>
+        <v>-0.1352170559347407</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-0.1647278293096308</v>
+        <v>-0.1601668945875933</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-0.1306888999167064</v>
+        <v>-0.1378185315169831</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.1498512752272051</v>
+        <v>-0.144511346836441</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.1477811653015255</v>
+        <v>-0.1550535792485912</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.1366049901506979</v>
+        <v>-0.1399154923715988</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.1462392598687308</v>
+        <v>-0.1437242647246199</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-0.1382953979661033</v>
+        <v>-0.1404899184246517</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.1374397929612801</v>
+        <v>-0.1513102288572925</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.1404608948489954</v>
+        <v>-0.1487708650091544</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.1240202880518434</v>
+        <v>-0.1473924865647281</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.135266912251587</v>
+        <v>-0.1462597582886539</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-0.1092378737528949</v>
+        <v>-0.1208649846930347</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-0.1308450861103073</v>
+        <v>-0.1343552241771575</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-0.1347837567773603</v>
+        <v>-0.1398332795412978</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-0.1244467680039165</v>
+        <v>-0.1425240583413791</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-0.154864045012676</v>
+        <v>-0.1620035571108785</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-0.1423174628680032</v>
+        <v>-0.1450387020312942</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-0.1347213396499927</v>
+        <v>-0.1436914440234</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-0.1156491269001354</v>
+        <v>-0.1267753362746346</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-0.1478966364989006</v>
+        <v>-0.1517124590225195</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-0.1429768906875194</v>
+        <v>-0.1496719173016532</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-0.1402249464112634</v>
+        <v>-0.140422507635264</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-0.1631927557092394</v>
+        <v>-0.1595847422887569</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-0.1417311466757732</v>
+        <v>-0.1538216170242151</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.1457339429845907</v>
+        <v>-0.1484391280131093</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-0.1262047435876535</v>
+        <v>-0.1329423744689452</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-0.1501652191620269</v>
+        <v>-0.1454402543250848</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-0.1513721666107095</v>
+        <v>-0.1607191478580963</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.1487636541952448</v>
+        <v>-0.1506527481628654</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-0.1321939245498575</v>
+        <v>-0.1350827414874373</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.1379558150213465</v>
+        <v>-0.1467498542016184</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-0.1231731258982799</v>
+        <v>-0.1348423403587705</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-0.1502535739710084</v>
+        <v>-0.1611331828877955</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-0.148089039058651</v>
+        <v>-0.146564740741485</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-0.1410300875909245</v>
+        <v>-0.1549422921537567</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-0.1506160858365301</v>
+        <v>-0.1612652106226906</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.1412471093862121</v>
+        <v>-0.1432773457210895</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-0.1438119887640854</v>
+        <v>-0.1418893561648777</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-0.1407366042577704</v>
+        <v>-0.1550178093768638</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-0.1407236588509597</v>
+        <v>-0.1570257370075022</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-0.152871254712649</v>
+        <v>-0.1565211322127092</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-0.1566507014817867</v>
+        <v>-0.1631070151678412</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-0.1520646358571172</v>
+        <v>-0.1641025982576543</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-0.1488863229828428</v>
+        <v>-0.1669009149938574</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-0.1470247099767155</v>
+        <v>-0.1588243038798047</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.1413253646864017</v>
+        <v>-0.1511445585541294</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-0.1542520856688087</v>
+        <v>-0.1593623022329997</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-0.1562065413611834</v>
+        <v>-0.1590766360986477</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-0.1453127042637936</v>
+        <v>-0.1501094864814698</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-0.1671532985006246</v>
+        <v>-0.1725251958186682</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-0.1417132607819188</v>
+        <v>-0.155509948508046</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-0.130847264572647</v>
+        <v>-0.1461149129252716</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-0.1541930432142799</v>
+        <v>-0.1570943787019503</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.1229802128080199</v>
+        <v>-0.1418998795254111</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.1453794684236828</v>
+        <v>-0.163348294115259</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.1352267275268086</v>
+        <v>-0.1472228249052039</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.1529151464265064</v>
+        <v>-0.1651374328821101</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-0.1337572286503706</v>
+        <v>-0.1184654996827959</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-0.1295398552032103</v>
+        <v>-0.1360533032054132</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-0.145128399747028</v>
+        <v>-0.1508923362764355</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.1296075767227933</v>
+        <v>-0.1051581300360721</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-0.1478252009918013</v>
+        <v>-0.170625740147824</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.1498941412098077</v>
+        <v>-0.1435952606418707</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.1482516820626764</v>
+        <v>-0.1508672386853765</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.1608039903021414</v>
+        <v>-0.1653349917867963</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-0.1660222589014619</v>
+        <v>-0.1734970573114473</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-0.157141874828808</v>
+        <v>-0.1597178014948256</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-0.1736500501567159</v>
+        <v>-0.166761108660474</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-0.1491979013045466</v>
+        <v>-0.145031051640192</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.1830342911403013</v>
+        <v>-0.1894513242277404</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-0.1529587272227596</v>
+        <v>-0.1620653520067289</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-0.1619292538918259</v>
+        <v>-0.1539575917230968</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-0.1625545837369666</v>
+        <v>-0.1714169975865334</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.1470945250232661</v>
+        <v>-0.1535621781479323</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-0.1329740187985859</v>
+        <v>-0.1431954015838744</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-0.1534815371481416</v>
+        <v>-0.1572105639238611</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-0.141957948829222</v>
+        <v>-0.1477235068811484</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-0.1440858179383938</v>
+        <v>-0.1516716692842648</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-0.1445732159411574</v>
+        <v>-0.1515531317590411</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-0.1497644153704008</v>
+        <v>-0.1566151242564213</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-0.1550022951818542</v>
+        <v>-0.167510331508165</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-0.1346800454072199</v>
+        <v>-0.1457777034289073</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-0.1615073186634932</v>
+        <v>-0.1678248268887523</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-0.1463937948912976</v>
+        <v>-0.1607370746641422</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-0.150108011976159</v>
+        <v>-0.1618327660937005</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-0.1467637368361356</v>
+        <v>-0.1567291157911106</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-0.1396081332290838</v>
+        <v>-0.137744861257819</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-0.1360879796448408</v>
+        <v>-0.1371042895705389</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.1237869989238679</v>
+        <v>-0.1277472407370958</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-0.1437896129538375</v>
+        <v>-0.1477736514769448</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-0.1328651127001593</v>
+        <v>-0.1281228495749844</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-0.1363273305325796</v>
+        <v>-0.135679853967162</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-0.1300356594319052</v>
+        <v>-0.1374317795319197</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-0.157183534623638</v>
+        <v>-0.1564086993925379</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-0.1510560235442661</v>
+        <v>-0.1499344961895943</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-0.1414228066393725</v>
+        <v>-0.1453650230464795</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-0.1308886930230947</v>
+        <v>-0.1403652547322589</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-0.1661195499367457</v>
+        <v>-0.1669368078775025</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-0.1463708197600745</v>
+        <v>-0.160083943630934</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-0.1388687145847405</v>
+        <v>-0.1403307866231898</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.1323957233009566</v>
+        <v>-0.13300549697495</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-0.1614853214435157</v>
+        <v>-0.1692872797271706</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-0.1460918410406901</v>
+        <v>-0.1461564043970132</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-0.143777919833558</v>
+        <v>-0.1439326315526882</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-0.1586696876925689</v>
+        <v>-0.1600992319554835</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-0.141367240456946</v>
+        <v>-0.1535167694763997</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-0.1558949310106507</v>
+        <v>-0.1716243019056425</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-0.1366829511873661</v>
+        <v>-0.1384145789465265</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-0.1570962063861467</v>
+        <v>-0.1713373555969782</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-0.1384342658204709</v>
+        <v>-0.1449425930689977</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-0.118521411183322</v>
+        <v>-0.1235529655158737</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-0.1408406937250421</v>
+        <v>-0.1419570936305301</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-0.1252115195563663</v>
+        <v>-0.1284367525255328</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-0.1357782275281999</v>
+        <v>-0.140501359819078</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-0.1427277594842603</v>
+        <v>-0.1468232010044886</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-0.1451988811797186</v>
+        <v>-0.1443316602026916</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-0.1474491382537791</v>
+        <v>-0.1451749208336832</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-0.1503849647355025</v>
+        <v>-0.1471325118014845</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-0.1448948683783708</v>
+        <v>-0.1404259465182559</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-0.1360894971991714</v>
+        <v>-0.1348611062933894</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-0.1462020941705974</v>
+        <v>-0.1414730491647654</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.143600926913191</v>
+        <v>-0.1547291051464265</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-0.1533117553455294</v>
+        <v>-0.1474313114118603</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-0.1523790918509553</v>
+        <v>-0.1495454106742798</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-0.1340144423246622</v>
+        <v>-0.1432923079881373</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-0.1576883384609335</v>
+        <v>-0.1587962265359784</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-0.1537858916080684</v>
+        <v>-0.1578299122476295</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-0.1592354601852625</v>
+        <v>-0.1634577284080391</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-0.1475471808326761</v>
+        <v>-0.1420778471553209</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-0.1340065394801759</v>
+        <v>-0.1179552448508632</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-0.1239674512276768</v>
+        <v>-0.1228965561387424</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-0.1276456289562956</v>
+        <v>-0.1298733696129884</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-0.1489309528949814</v>
+        <v>-0.1492619593079897</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-0.141002235772236</v>
+        <v>-0.1451402613168795</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-0.1446860398811163</v>
+        <v>-0.1462907264903082</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-0.1623228465318637</v>
+        <v>-0.1641628229579167</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>-0.1518404541643135</v>
+        <v>-0.1527870921007896</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>-0.1488535027771499</v>
+        <v>-0.1449419248515668</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.1544235435696285</v>
+        <v>-0.1541868287220763</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>-0.1430710079085955</v>
+        <v>-0.1376197373440932</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>-0.1486616113614915</v>
+        <v>-0.1508169389967394</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>-0.1569903526700294</v>
+        <v>-0.1645143021641264</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>-0.1631235727168127</v>
+        <v>-0.158452257895743</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>-0.1672621190593279</v>
+        <v>-0.1690665655010296</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>-0.1577256567367241</v>
+        <v>-0.152377469450965</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>-0.1331324531404534</v>
+        <v>-0.1333234798700463</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>-0.1320746740461123</v>
+        <v>-0.1445815537121652</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>-0.1336825793603431</v>
+        <v>-0.1332505201272398</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.1453879489949619</v>
+        <v>-0.1477625847058248</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>-0.1353230329688963</v>
+        <v>-0.1355603859326944</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>-0.1334563840831493</v>
+        <v>-0.1368077724724364</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>-0.1295435045823123</v>
+        <v>-0.1392493829736869</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>-0.1820978292886713</v>
+        <v>-0.1752398211362326</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>-0.1330273199892036</v>
+        <v>-0.1437615684902044</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.1419034319616386</v>
+        <v>-0.1409678838423658</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>-0.1427717385127454</v>
+        <v>-0.1333455580976433</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>-0.1535965328141393</v>
+        <v>-0.1572387197110207</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>-0.1355593718275513</v>
+        <v>-0.1492761061098002</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>-0.1198574583051874</v>
+        <v>-0.1296969637385044</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>-0.1357506245565157</v>
+        <v>-0.1358856748470551</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>-0.1358167475249214</v>
+        <v>-0.1402553066396097</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>-0.1411430903880462</v>
+        <v>-0.1460662871317269</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>-0.139787407998092</v>
+        <v>-0.1501270178737705</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>-0.1241646460591886</v>
+        <v>-0.1397830656095113</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>-0.1397630891716116</v>
+        <v>-0.1558666800380556</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>-0.1094448342667674</v>
+        <v>-0.1120214390697552</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>-0.1233693894318142</v>
+        <v>-0.1301939661310762</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>-0.1283392927322985</v>
+        <v>-0.1283015480786251</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>-0.1618235562840177</v>
+        <v>-0.1671223985073225</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>-0.1193680697692928</v>
+        <v>-0.1284465277800784</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.1489479396698089</v>
+        <v>-0.1566418566664122</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>-0.1495323401325639</v>
+        <v>-0.1479311989005157</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>-0.1534256519001425</v>
+        <v>-0.1721066777471692</v>
       </c>
     </row>
   </sheetData>
